--- a/sample/excel_demo.xlsx
+++ b/sample/excel_demo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="185">
   <si>
     <t>Yojana_name</t>
   </si>
@@ -35,6 +35,12 @@
     <t>Ward_no</t>
   </si>
   <si>
+    <t>bishaygat_chhetra</t>
+  </si>
+  <si>
+    <t>shirshakgat_kisim</t>
+  </si>
+  <si>
     <t>Biniyojan_kisim</t>
   </si>
   <si>
@@ -83,6 +89,12 @@
     <t>सिसि क्यामेरा जडान तथा मर्मत</t>
   </si>
   <si>
+    <t>पूर्वाधार बिकाश</t>
+  </si>
+  <si>
+    <t>सडक स्तरोन्नति</t>
+  </si>
+  <si>
     <t>नगरस्तरीय</t>
   </si>
   <si>
@@ -101,6 +113,12 @@
     <t>वडा कार्यालय व्यवस्थापन तथा सामाग्री खरिद</t>
   </si>
   <si>
+    <t>सामाजिक बिकाश</t>
+  </si>
+  <si>
+    <t>खानेपानी सिंचाई</t>
+  </si>
+  <si>
     <t>रा.आ.वि. गडुवामा शैक्षिक सामाग्री वितरण</t>
   </si>
   <si>
@@ -242,6 +260,12 @@
     <t>वडा कार्यालय गेट तथा परिसर व्यवस्थापन अधुरो काम निरन्तरता</t>
   </si>
   <si>
+    <t>आर्थिक बिकाश</t>
+  </si>
+  <si>
+    <t>कृषि</t>
+  </si>
+  <si>
     <t>वडा नं. 14 नमुना नगरपालिका</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
   </si>
   <si>
     <t>ब्रम्हथान वाल कम्पाउण्ड</t>
+  </si>
+  <si>
+    <t>सडक विस्तार</t>
   </si>
   <si>
     <t>वडा नं. 36 नमुना नगरपालिका</t>
@@ -567,14 +594,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,13 +1067,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,132 +1085,130 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1721,21 +1742,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="3" max="3" width="23.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="20.3333333333333" customWidth="1"/>
-    <col min="14" max="14" width="10.2222222222222" style="1"/>
+    <col min="5" max="5" width="23.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="20.3333333333333" customWidth="1"/>
+    <col min="16" max="16" width="10.2222222222222" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1775,4786 +1796,5332 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
         <v>500000</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>20000</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>200000</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>200000</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>10000</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2">
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
         <v>26563</v>
       </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>5</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
         <v>500001</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>20001</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>200001</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>200001</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>10001</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3">
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
         <v>26564</v>
       </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>6</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
         <v>500002</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>20002</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>200002</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>200002</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>10002</v>
       </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4">
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
         <v>26565</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="1">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>7</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>2</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
         <v>500003</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>20003</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>200003</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>200003</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>10003</v>
       </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5">
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
         <v>26566</v>
       </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="1">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>8</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
         <v>500004</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>20004</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>200004</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>200004</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>10004</v>
       </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6">
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6">
         <v>26567</v>
       </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="1">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>9</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>4</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
         <v>500005</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>20005</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>200005</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>200005</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>10005</v>
       </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7">
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7">
         <v>26568</v>
       </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="1">
         <v>65786</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>10</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>5</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
         <v>500006</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>20006</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>200006</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>200006</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>10006</v>
       </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8">
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8">
         <v>26569</v>
       </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="1">
         <v>65787</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>11</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>6</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
         <v>500007</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>20007</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>200007</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>200007</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>10007</v>
       </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9">
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9">
         <v>26570</v>
       </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="1">
         <v>65788</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>12</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>7</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
         <v>500008</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>20008</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>200008</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>200008</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>10008</v>
       </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10">
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10">
         <v>26571</v>
       </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="1">
         <v>65789</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>13</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>8</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11">
         <v>500009</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>20009</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>200009</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>200009</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>10009</v>
       </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11">
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11">
         <v>26572</v>
       </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="1">
         <v>65790</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>14</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>9</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
         <v>500010</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>20010</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>200010</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>200010</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>10010</v>
       </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12">
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12">
         <v>26573</v>
       </c>
-      <c r="M12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="1">
         <v>65791</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>15</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>10</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
         <v>500011</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>20011</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>200011</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>200011</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>10011</v>
       </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13">
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13">
         <v>26574</v>
       </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="1">
         <v>65792</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>16</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>11</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
         <v>500012</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>20012</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>200012</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>200012</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>10012</v>
       </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14">
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14">
         <v>26575</v>
       </c>
-      <c r="M14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="1">
         <v>65793</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>17</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>12</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>500013</v>
+      </c>
+      <c r="I15">
+        <v>20013</v>
+      </c>
+      <c r="J15">
+        <v>200013</v>
+      </c>
+      <c r="K15">
+        <v>200013</v>
+      </c>
+      <c r="L15">
+        <v>10013</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15">
+        <v>26576</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="1">
+        <v>65794</v>
+      </c>
+      <c r="Q15">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15">
-        <v>500013</v>
-      </c>
-      <c r="G15">
-        <v>20013</v>
-      </c>
-      <c r="H15">
-        <v>200013</v>
-      </c>
-      <c r="I15">
-        <v>200013</v>
-      </c>
-      <c r="J15">
-        <v>10013</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15">
-        <v>26576</v>
-      </c>
-      <c r="M15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="1">
-        <v>65794</v>
-      </c>
-      <c r="O15">
-        <v>18</v>
-      </c>
-      <c r="P15">
+      <c r="R15">
         <v>13</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>500014</v>
+      </c>
+      <c r="I16">
+        <v>20014</v>
+      </c>
+      <c r="J16">
+        <v>200014</v>
+      </c>
+      <c r="K16">
+        <v>200014</v>
+      </c>
+      <c r="L16">
+        <v>10014</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>26577</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="1">
+        <v>65795</v>
+      </c>
+      <c r="Q16">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <v>500014</v>
-      </c>
-      <c r="G16">
-        <v>20014</v>
-      </c>
-      <c r="H16">
-        <v>200014</v>
-      </c>
-      <c r="I16">
-        <v>200014</v>
-      </c>
-      <c r="J16">
-        <v>10014</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16">
-        <v>26577</v>
-      </c>
-      <c r="M16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="1">
-        <v>65795</v>
-      </c>
-      <c r="O16">
-        <v>19</v>
-      </c>
-      <c r="P16">
+      <c r="R16">
         <v>14</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>500015</v>
+      </c>
+      <c r="I17">
+        <v>20015</v>
+      </c>
+      <c r="J17">
+        <v>200015</v>
+      </c>
+      <c r="K17">
+        <v>200015</v>
+      </c>
+      <c r="L17">
+        <v>10015</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17">
+        <v>26578</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="1">
+        <v>65796</v>
+      </c>
+      <c r="Q17">
         <v>20</v>
       </c>
-      <c r="F17">
-        <v>500015</v>
-      </c>
-      <c r="G17">
-        <v>20015</v>
-      </c>
-      <c r="H17">
-        <v>200015</v>
-      </c>
-      <c r="I17">
-        <v>200015</v>
-      </c>
-      <c r="J17">
-        <v>10015</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17">
-        <v>26578</v>
-      </c>
-      <c r="M17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="1">
-        <v>65796</v>
-      </c>
-      <c r="O17">
-        <v>20</v>
-      </c>
-      <c r="P17">
+      <c r="R17">
         <v>15</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18">
         <v>500016</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>20016</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>200016</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>200016</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>10016</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18">
+        <v>26579</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="1">
+        <v>65797</v>
+      </c>
+      <c r="Q18">
         <v>21</v>
       </c>
-      <c r="L18">
-        <v>26579</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="1">
-        <v>65797</v>
-      </c>
-      <c r="O18">
-        <v>21</v>
-      </c>
-      <c r="P18">
+      <c r="R18">
         <v>16</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
         <v>500017</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>20017</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>200017</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>200017</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>10017</v>
       </c>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19">
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19">
         <v>26580</v>
       </c>
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="1">
         <v>65798</v>
       </c>
-      <c r="O19">
-        <v>22</v>
-      </c>
-      <c r="P19">
+      <c r="Q19">
+        <v>22</v>
+      </c>
+      <c r="R19">
         <v>17</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:19">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>500018</v>
+      </c>
+      <c r="I20">
+        <v>20018</v>
+      </c>
+      <c r="J20">
+        <v>200018</v>
+      </c>
+      <c r="K20">
+        <v>200018</v>
+      </c>
+      <c r="L20">
+        <v>10018</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>26581</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="1">
+        <v>65799</v>
+      </c>
+      <c r="Q20">
+        <v>23</v>
+      </c>
+      <c r="R20">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20">
-        <v>500018</v>
-      </c>
-      <c r="G20">
-        <v>20018</v>
-      </c>
-      <c r="H20">
-        <v>200018</v>
-      </c>
-      <c r="I20">
-        <v>200018</v>
-      </c>
-      <c r="J20">
-        <v>10018</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20">
-        <v>26581</v>
-      </c>
-      <c r="M20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="1">
-        <v>65799</v>
-      </c>
-      <c r="O20">
-        <v>23</v>
-      </c>
-      <c r="P20">
+      <c r="S20">
         <v>18</v>
       </c>
-      <c r="Q20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>500019</v>
+      </c>
+      <c r="I21">
+        <v>20019</v>
+      </c>
+      <c r="J21">
+        <v>200019</v>
+      </c>
+      <c r="K21">
+        <v>200019</v>
+      </c>
+      <c r="L21">
+        <v>10019</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21">
+        <v>26582</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="1">
+        <v>65800</v>
+      </c>
+      <c r="Q21">
+        <v>24</v>
+      </c>
+      <c r="R21">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <v>500019</v>
-      </c>
-      <c r="G21">
-        <v>20019</v>
-      </c>
-      <c r="H21">
-        <v>200019</v>
-      </c>
-      <c r="I21">
-        <v>200019</v>
-      </c>
-      <c r="J21">
-        <v>10019</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21">
-        <v>26582</v>
-      </c>
-      <c r="M21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="1">
-        <v>65800</v>
-      </c>
-      <c r="O21">
-        <v>24</v>
-      </c>
-      <c r="P21">
+      <c r="S21">
         <v>19</v>
       </c>
-      <c r="Q21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>500020</v>
+      </c>
+      <c r="I22">
+        <v>20020</v>
+      </c>
+      <c r="J22">
+        <v>200020</v>
+      </c>
+      <c r="K22">
+        <v>200020</v>
+      </c>
+      <c r="L22">
+        <v>10020</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22">
+        <v>26583</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="1">
+        <v>65801</v>
+      </c>
+      <c r="Q22">
+        <v>25</v>
+      </c>
+      <c r="R22">
         <v>20</v>
       </c>
-      <c r="F22">
-        <v>500020</v>
-      </c>
-      <c r="G22">
-        <v>20020</v>
-      </c>
-      <c r="H22">
-        <v>200020</v>
-      </c>
-      <c r="I22">
-        <v>200020</v>
-      </c>
-      <c r="J22">
-        <v>10020</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22">
-        <v>26583</v>
-      </c>
-      <c r="M22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="1">
-        <v>65801</v>
-      </c>
-      <c r="O22">
-        <v>25</v>
-      </c>
-      <c r="P22">
+      <c r="S22">
         <v>20</v>
       </c>
-      <c r="Q22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
+      <c r="C23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23">
         <v>500021</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>20021</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>200021</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>200021</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>10021</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>26584</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="1">
+        <v>65802</v>
+      </c>
+      <c r="Q23">
+        <v>26</v>
+      </c>
+      <c r="R23">
         <v>21</v>
       </c>
-      <c r="L23">
-        <v>26584</v>
-      </c>
-      <c r="M23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" s="1">
-        <v>65802</v>
-      </c>
-      <c r="O23">
-        <v>26</v>
-      </c>
-      <c r="P23">
+      <c r="S23">
         <v>21</v>
       </c>
-      <c r="Q23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24">
         <v>500022</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>20022</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>200022</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>200022</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>10022</v>
       </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24">
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24">
         <v>26585</v>
       </c>
-      <c r="M24" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="1">
         <v>65803</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>27</v>
       </c>
-      <c r="P24">
-        <v>22</v>
-      </c>
-      <c r="Q24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>22</v>
+      </c>
+      <c r="S24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
+      <c r="C25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25">
         <v>500023</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>20023</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>200023</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>200023</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>10023</v>
       </c>
-      <c r="K25" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25">
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25">
         <v>26586</v>
       </c>
-      <c r="M25" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="1">
         <v>65804</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>28</v>
       </c>
-      <c r="P25">
-        <v>23</v>
-      </c>
-      <c r="Q25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>23</v>
+      </c>
+      <c r="S25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26">
         <v>500024</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>20024</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>200024</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>200024</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>10024</v>
       </c>
-      <c r="K26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26">
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26">
         <v>26587</v>
       </c>
-      <c r="M26" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="1">
         <v>65805</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>29</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>24</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27">
         <v>500025</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>20025</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>200025</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>200025</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>10025</v>
       </c>
-      <c r="K27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27">
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27">
         <v>26588</v>
       </c>
-      <c r="M27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="1">
         <v>65806</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>30</v>
       </c>
-      <c r="P27">
-        <v>25</v>
-      </c>
-      <c r="Q27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>25</v>
+      </c>
+      <c r="S27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
+      <c r="C28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28">
         <v>500026</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>20026</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>200026</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>200026</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>10026</v>
       </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28">
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28">
         <v>26589</v>
       </c>
-      <c r="M28" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="1">
         <v>65807</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>31</v>
       </c>
-      <c r="P28">
-        <v>26</v>
-      </c>
-      <c r="Q28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>26</v>
+      </c>
+      <c r="S28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
+      <c r="C29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29">
         <v>500027</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>20027</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>200027</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>200027</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>10027</v>
       </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29">
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29">
         <v>26590</v>
       </c>
-      <c r="M29" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="1">
         <v>65808</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>32</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>27</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:19">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
+      <c r="C30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30">
         <v>500028</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>20028</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>200028</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>200028</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>10028</v>
       </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30">
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30">
         <v>26591</v>
       </c>
-      <c r="M30" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="1">
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="1">
         <v>65809</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>33</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>28</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
+      <c r="C31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31">
         <v>500029</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>20029</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>200029</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>200029</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>10029</v>
       </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31">
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31">
         <v>26592</v>
       </c>
-      <c r="M31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="1">
+      <c r="O31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="1">
         <v>65810</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>34</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>29</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:19">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
+      <c r="C32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32">
         <v>500030</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>20030</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>200030</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>200030</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>10030</v>
       </c>
-      <c r="K32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32">
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32">
         <v>26593</v>
       </c>
-      <c r="M32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N32" s="1">
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="1">
         <v>65811</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>35</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>30</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:19">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B33" s="3">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
+      <c r="C33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33">
         <v>500031</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>20031</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>200031</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>200031</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>10031</v>
       </c>
-      <c r="K33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33">
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33">
         <v>26594</v>
       </c>
-      <c r="M33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N33" s="1">
+      <c r="O33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="1">
         <v>65812</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>36</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>31</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:19">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
+      <c r="C34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34">
         <v>500032</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>20032</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>200032</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>200032</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>10032</v>
       </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34">
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34">
         <v>26595</v>
       </c>
-      <c r="M34" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" s="1">
+      <c r="O34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="1">
         <v>65813</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>37</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>32</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:19">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B35" s="3">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
+      <c r="C35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35">
         <v>500033</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>20033</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>200033</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>200033</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>10033</v>
       </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35">
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35">
         <v>26596</v>
       </c>
-      <c r="M35" t="s">
-        <v>22</v>
-      </c>
-      <c r="N35" s="1">
+      <c r="O35" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="1">
         <v>65814</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>38</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>33</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:19">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
+      <c r="C36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36">
         <v>500034</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>20034</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>200034</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>200034</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>10034</v>
       </c>
-      <c r="K36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36">
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36">
         <v>26597</v>
       </c>
-      <c r="M36" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="1">
+      <c r="O36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="1">
         <v>65815</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>39</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>34</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:19">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B37" s="3">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
+      <c r="C37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37">
         <v>500035</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>20035</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>200035</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>200035</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>10035</v>
       </c>
-      <c r="K37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37">
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37">
         <v>26598</v>
       </c>
-      <c r="M37" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" s="1">
+      <c r="O37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" s="1">
         <v>65816</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>40</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>35</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:19">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
+      <c r="C38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38">
         <v>500036</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>20036</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>200036</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>200036</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>10036</v>
       </c>
-      <c r="K38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38">
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38">
         <v>26599</v>
       </c>
-      <c r="M38" t="s">
-        <v>22</v>
-      </c>
-      <c r="N38" s="1">
+      <c r="O38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" s="1">
         <v>65817</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>41</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>36</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:19">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39">
         <v>500037</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>20037</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>200037</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>200037</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>10037</v>
       </c>
-      <c r="K39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39">
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39">
         <v>26600</v>
       </c>
-      <c r="M39" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="1">
+      <c r="O39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" s="1">
         <v>65818</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>42</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>37</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:19">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B40" s="3">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
+      <c r="C40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40">
         <v>500038</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>20038</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>200038</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>200038</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>10038</v>
       </c>
-      <c r="K40" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40">
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40">
         <v>26601</v>
       </c>
-      <c r="M40" t="s">
-        <v>22</v>
-      </c>
-      <c r="N40" s="1">
+      <c r="O40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="1">
         <v>65819</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>43</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>38</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:19">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
+      <c r="C41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41">
         <v>500039</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>20039</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>200039</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>200039</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>10039</v>
       </c>
-      <c r="K41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41">
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41">
         <v>26602</v>
       </c>
-      <c r="M41" t="s">
-        <v>22</v>
-      </c>
-      <c r="N41" s="1">
+      <c r="O41" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" s="1">
         <v>65820</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>44</v>
       </c>
-      <c r="P41">
+      <c r="R41">
         <v>39</v>
       </c>
-      <c r="Q41">
+      <c r="S41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:19">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
       </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
+      <c r="C42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42">
         <v>500040</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>20040</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>200040</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>200040</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>10040</v>
       </c>
-      <c r="K42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42">
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42">
         <v>26603</v>
       </c>
-      <c r="M42" t="s">
-        <v>22</v>
-      </c>
-      <c r="N42" s="1">
+      <c r="O42" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="1">
         <v>65821</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>45</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <v>40</v>
       </c>
-      <c r="Q42">
+      <c r="S42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:19">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
+      <c r="C43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43">
         <v>500041</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>20041</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>200041</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>200041</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>10041</v>
       </c>
-      <c r="K43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43">
+      <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43">
         <v>26604</v>
       </c>
-      <c r="M43" t="s">
-        <v>22</v>
-      </c>
-      <c r="N43" s="1">
+      <c r="O43" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" s="1">
         <v>65822</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>46</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>41</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:19">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
+      <c r="C44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44">
         <v>500042</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>20042</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>200042</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>200042</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>10042</v>
       </c>
-      <c r="K44" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44">
+      <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44">
         <v>26605</v>
       </c>
-      <c r="M44" t="s">
-        <v>22</v>
-      </c>
-      <c r="N44" s="1">
+      <c r="O44" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="1">
         <v>65823</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>47</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <v>42</v>
       </c>
-      <c r="Q44">
+      <c r="S44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:19">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
+      <c r="C45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45">
         <v>500043</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>20043</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>200043</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>200043</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>10043</v>
       </c>
-      <c r="K45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45">
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45">
         <v>26606</v>
       </c>
-      <c r="M45" t="s">
-        <v>22</v>
-      </c>
-      <c r="N45" s="1">
+      <c r="O45" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" s="1">
         <v>65824</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>48</v>
       </c>
-      <c r="P45">
+      <c r="R45">
         <v>43</v>
       </c>
-      <c r="Q45">
+      <c r="S45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:19">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
       </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
+      <c r="C46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
-      </c>
-      <c r="F46">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46">
         <v>500044</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>20044</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>200044</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>200044</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>10044</v>
       </c>
-      <c r="K46" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46">
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46">
         <v>26607</v>
       </c>
-      <c r="M46" t="s">
-        <v>22</v>
-      </c>
-      <c r="N46" s="1">
+      <c r="O46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" s="1">
         <v>65825</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>49</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <v>44</v>
       </c>
-      <c r="Q46">
+      <c r="S46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:19">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>19</v>
+      <c r="C47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47">
         <v>500045</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>20045</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>200045</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>200045</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>10045</v>
       </c>
-      <c r="K47" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47">
+      <c r="M47" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47">
         <v>26608</v>
       </c>
-      <c r="M47" t="s">
-        <v>22</v>
-      </c>
-      <c r="N47" s="1">
+      <c r="O47" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" s="1">
         <v>65826</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>50</v>
       </c>
-      <c r="P47">
+      <c r="R47">
         <v>45</v>
       </c>
-      <c r="Q47">
+      <c r="S47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:19">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>19</v>
+      <c r="C48" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48">
         <v>500046</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>20046</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>200046</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>200046</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>10046</v>
       </c>
-      <c r="K48" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48">
+      <c r="M48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48">
         <v>26609</v>
       </c>
-      <c r="M48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N48" s="1">
+      <c r="O48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" s="1">
         <v>65827</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>51</v>
       </c>
-      <c r="P48">
+      <c r="R48">
         <v>46</v>
       </c>
-      <c r="Q48">
+      <c r="S48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:19">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B49" s="3">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>19</v>
+      <c r="C49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49">
         <v>500047</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>20047</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>200047</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>200047</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>10047</v>
       </c>
-      <c r="K49" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49">
+      <c r="M49" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49">
         <v>26610</v>
       </c>
-      <c r="M49" t="s">
-        <v>22</v>
-      </c>
-      <c r="N49" s="1">
+      <c r="O49" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" s="1">
         <v>65828</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <v>52</v>
       </c>
-      <c r="P49">
+      <c r="R49">
         <v>47</v>
       </c>
-      <c r="Q49">
+      <c r="S49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:19">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B50" s="3">
         <v>3</v>
       </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s">
-        <v>19</v>
+      <c r="C50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50">
         <v>500048</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>20048</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>200048</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>200048</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>10048</v>
       </c>
-      <c r="K50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50">
+      <c r="M50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50">
         <v>26611</v>
       </c>
-      <c r="M50" t="s">
-        <v>22</v>
-      </c>
-      <c r="N50" s="1">
+      <c r="O50" t="s">
+        <v>26</v>
+      </c>
+      <c r="P50" s="1">
         <v>65829</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>53</v>
       </c>
-      <c r="P50">
+      <c r="R50">
         <v>48</v>
       </c>
-      <c r="Q50">
+      <c r="S50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:19">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
       </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
+      <c r="C51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51">
         <v>500049</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>20049</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>200049</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>200049</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>10049</v>
       </c>
-      <c r="K51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51">
+      <c r="M51" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51">
         <v>26612</v>
       </c>
-      <c r="M51" t="s">
-        <v>22</v>
-      </c>
-      <c r="N51" s="1">
+      <c r="O51" t="s">
+        <v>26</v>
+      </c>
+      <c r="P51" s="1">
         <v>65830</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <v>54</v>
       </c>
-      <c r="P51">
+      <c r="R51">
         <v>49</v>
       </c>
-      <c r="Q51">
+      <c r="S51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:19">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
       </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>19</v>
+      <c r="C52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52">
         <v>500050</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>20050</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>200050</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>200050</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>10050</v>
       </c>
-      <c r="K52" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52">
+      <c r="M52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52">
         <v>26613</v>
       </c>
-      <c r="M52" t="s">
-        <v>22</v>
-      </c>
-      <c r="N52" s="1">
+      <c r="O52" t="s">
+        <v>26</v>
+      </c>
+      <c r="P52" s="1">
         <v>65831</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
         <v>55</v>
       </c>
-      <c r="P52">
+      <c r="R52">
         <v>50</v>
       </c>
-      <c r="Q52">
+      <c r="S52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:19">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>19</v>
+      <c r="C53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53">
         <v>500051</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>20051</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>200051</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>200051</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>10051</v>
       </c>
-      <c r="K53" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53">
+      <c r="M53" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53">
         <v>26614</v>
       </c>
-      <c r="M53" t="s">
-        <v>22</v>
-      </c>
-      <c r="N53" s="1">
+      <c r="O53" t="s">
+        <v>26</v>
+      </c>
+      <c r="P53" s="1">
         <v>65832</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <v>56</v>
       </c>
-      <c r="P53">
+      <c r="R53">
         <v>51</v>
       </c>
-      <c r="Q53">
+      <c r="S53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:19">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B54" s="3">
         <v>3</v>
       </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
+      <c r="C54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>110</v>
+      </c>
+      <c r="H54">
         <v>500052</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>20052</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>200052</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>200052</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>10052</v>
       </c>
-      <c r="K54" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54">
+      <c r="M54" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54">
         <v>26615</v>
       </c>
-      <c r="M54" t="s">
-        <v>22</v>
-      </c>
-      <c r="N54" s="1">
+      <c r="O54" t="s">
+        <v>26</v>
+      </c>
+      <c r="P54" s="1">
         <v>65833</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <v>57</v>
       </c>
-      <c r="P54">
+      <c r="R54">
         <v>52</v>
       </c>
-      <c r="Q54">
+      <c r="S54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:19">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B55" s="3">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
+      <c r="C55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55">
         <v>500053</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>20053</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>200053</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>200053</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>10053</v>
       </c>
-      <c r="K55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55">
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55">
         <v>26616</v>
       </c>
-      <c r="M55" t="s">
-        <v>22</v>
-      </c>
-      <c r="N55" s="1">
+      <c r="O55" t="s">
+        <v>26</v>
+      </c>
+      <c r="P55" s="1">
         <v>65834</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <v>58</v>
       </c>
-      <c r="P55">
+      <c r="R55">
         <v>53</v>
       </c>
-      <c r="Q55">
+      <c r="S55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:19">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B56" s="3">
         <v>3</v>
       </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>19</v>
+      <c r="C56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>114</v>
+      </c>
+      <c r="H56">
         <v>500054</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>20054</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>200054</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>200054</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>10054</v>
       </c>
-      <c r="K56" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56">
+      <c r="M56" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56">
         <v>26617</v>
       </c>
-      <c r="M56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N56" s="1">
+      <c r="O56" t="s">
+        <v>26</v>
+      </c>
+      <c r="P56" s="1">
         <v>65835</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <v>59</v>
       </c>
-      <c r="P56">
+      <c r="R56">
         <v>54</v>
       </c>
-      <c r="Q56">
+      <c r="S56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:19">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B57" s="3">
         <v>3</v>
       </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>19</v>
+      <c r="C57" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57">
         <v>500055</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>20055</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>200055</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>200055</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>10055</v>
       </c>
-      <c r="K57" t="s">
-        <v>21</v>
-      </c>
-      <c r="L57">
+      <c r="M57" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57">
         <v>26618</v>
       </c>
-      <c r="M57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N57" s="1">
+      <c r="O57" t="s">
+        <v>26</v>
+      </c>
+      <c r="P57" s="1">
         <v>65836</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <v>60</v>
       </c>
-      <c r="P57">
+      <c r="R57">
         <v>55</v>
       </c>
-      <c r="Q57">
+      <c r="S57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:19">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B58" s="3">
         <v>3</v>
       </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>19</v>
+      <c r="C58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58">
         <v>500056</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>20056</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>200056</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>200056</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>10056</v>
       </c>
-      <c r="K58" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58">
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58">
         <v>26619</v>
       </c>
-      <c r="M58" t="s">
-        <v>22</v>
-      </c>
-      <c r="N58" s="1">
+      <c r="O58" t="s">
+        <v>26</v>
+      </c>
+      <c r="P58" s="1">
         <v>65837</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>61</v>
       </c>
-      <c r="P58">
+      <c r="R58">
         <v>56</v>
       </c>
-      <c r="Q58">
+      <c r="S58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:19">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B59" s="3">
         <v>3</v>
       </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>19</v>
+      <c r="C59" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
-      </c>
-      <c r="F59">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59">
         <v>500057</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>20057</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>200057</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>200057</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>10057</v>
       </c>
-      <c r="K59" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59">
+      <c r="M59" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59">
         <v>26620</v>
       </c>
-      <c r="M59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N59" s="1">
+      <c r="O59" t="s">
+        <v>26</v>
+      </c>
+      <c r="P59" s="1">
         <v>65838</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>62</v>
       </c>
-      <c r="P59">
+      <c r="R59">
         <v>57</v>
       </c>
-      <c r="Q59">
+      <c r="S59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:19">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B60" s="3">
         <v>3</v>
       </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
+      <c r="C60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60">
         <v>500058</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>20058</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>200058</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>200058</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>10058</v>
       </c>
-      <c r="K60" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60">
+      <c r="M60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60">
         <v>26621</v>
       </c>
-      <c r="M60" t="s">
-        <v>22</v>
-      </c>
-      <c r="N60" s="1">
+      <c r="O60" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60" s="1">
         <v>65839</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>63</v>
       </c>
-      <c r="P60">
+      <c r="R60">
         <v>58</v>
       </c>
-      <c r="Q60">
+      <c r="S60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:19">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B61" s="3">
         <v>3</v>
       </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>19</v>
+      <c r="C61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E61" t="s">
-        <v>116</v>
-      </c>
-      <c r="F61">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61">
         <v>500059</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>20059</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>200059</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>200059</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>10059</v>
       </c>
-      <c r="K61" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61">
+      <c r="M61" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61">
         <v>26622</v>
       </c>
-      <c r="M61" t="s">
-        <v>22</v>
-      </c>
-      <c r="N61" s="1">
+      <c r="O61" t="s">
+        <v>26</v>
+      </c>
+      <c r="P61" s="1">
         <v>65840</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <v>64</v>
       </c>
-      <c r="P61">
+      <c r="R61">
         <v>59</v>
       </c>
-      <c r="Q61">
+      <c r="S61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:19">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B62" s="3">
         <v>3</v>
       </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
+      <c r="C62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>118</v>
-      </c>
-      <c r="F62">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62">
         <v>500060</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>20060</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>200060</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>200060</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>10060</v>
       </c>
-      <c r="K62" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62">
+      <c r="M62" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62">
         <v>26623</v>
       </c>
-      <c r="M62" t="s">
-        <v>22</v>
-      </c>
-      <c r="N62" s="1">
+      <c r="O62" t="s">
+        <v>26</v>
+      </c>
+      <c r="P62" s="1">
         <v>65841</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <v>65</v>
       </c>
-      <c r="P62">
+      <c r="R62">
         <v>60</v>
       </c>
-      <c r="Q62">
+      <c r="S62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:19">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B63" s="3">
         <v>3</v>
       </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
+      <c r="C63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
-      </c>
-      <c r="F63">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>129</v>
+      </c>
+      <c r="H63">
         <v>500061</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>20061</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>200061</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>200061</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>10061</v>
       </c>
-      <c r="K63" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63">
+      <c r="M63" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63">
         <v>26624</v>
       </c>
-      <c r="M63" t="s">
-        <v>22</v>
-      </c>
-      <c r="N63" s="1">
+      <c r="O63" t="s">
+        <v>26</v>
+      </c>
+      <c r="P63" s="1">
         <v>65842</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <v>66</v>
       </c>
-      <c r="P63">
+      <c r="R63">
         <v>61</v>
       </c>
-      <c r="Q63">
+      <c r="S63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:19">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B64" s="3">
         <v>3</v>
       </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>19</v>
+      <c r="C64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E64" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>131</v>
+      </c>
+      <c r="H64">
         <v>500062</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>20062</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>200062</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>200062</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>10062</v>
       </c>
-      <c r="K64" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64">
+      <c r="M64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64">
         <v>26625</v>
       </c>
-      <c r="M64" t="s">
-        <v>22</v>
-      </c>
-      <c r="N64" s="1">
+      <c r="O64" t="s">
+        <v>26</v>
+      </c>
+      <c r="P64" s="1">
         <v>65843</v>
       </c>
-      <c r="O64">
+      <c r="Q64">
         <v>67</v>
       </c>
-      <c r="P64">
+      <c r="R64">
         <v>62</v>
       </c>
-      <c r="Q64">
+      <c r="S64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:19">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B65" s="3">
         <v>4</v>
       </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
+      <c r="C65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E65" t="s">
-        <v>124</v>
-      </c>
-      <c r="F65">
+        <v>22</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H65">
         <v>500063</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>20063</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>200063</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>200063</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>10063</v>
       </c>
-      <c r="K65" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65">
+      <c r="M65" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65">
         <v>26626</v>
       </c>
-      <c r="M65" t="s">
-        <v>22</v>
-      </c>
-      <c r="N65" s="1">
+      <c r="O65" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" s="1">
         <v>65844</v>
       </c>
-      <c r="O65">
+      <c r="Q65">
         <v>68</v>
       </c>
-      <c r="P65">
+      <c r="R65">
         <v>63</v>
       </c>
-      <c r="Q65">
+      <c r="S65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:19">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B66" s="3">
         <v>4</v>
       </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" t="s">
-        <v>19</v>
+      <c r="C66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
-      </c>
-      <c r="F66">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>135</v>
+      </c>
+      <c r="H66">
         <v>500064</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>20064</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>200064</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>200064</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>10064</v>
       </c>
-      <c r="K66" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66">
+      <c r="M66" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66">
         <v>26627</v>
       </c>
-      <c r="M66" t="s">
-        <v>22</v>
-      </c>
-      <c r="N66" s="1">
+      <c r="O66" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66" s="1">
         <v>65845</v>
       </c>
-      <c r="O66">
+      <c r="Q66">
         <v>69</v>
       </c>
-      <c r="P66">
+      <c r="R66">
         <v>64</v>
       </c>
-      <c r="Q66">
+      <c r="S66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:19">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B67" s="3">
         <v>4</v>
       </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
-        <v>19</v>
+      <c r="C67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67">
+        <v>22</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>137</v>
+      </c>
+      <c r="H67">
         <v>500065</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>20065</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>200065</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>200065</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>10065</v>
       </c>
-      <c r="K67" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67">
+      <c r="M67" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67">
         <v>26628</v>
       </c>
-      <c r="M67" t="s">
-        <v>22</v>
-      </c>
-      <c r="N67" s="1">
+      <c r="O67" t="s">
+        <v>26</v>
+      </c>
+      <c r="P67" s="1">
         <v>65846</v>
       </c>
-      <c r="O67">
+      <c r="Q67">
         <v>70</v>
       </c>
-      <c r="P67">
+      <c r="R67">
         <v>65</v>
       </c>
-      <c r="Q67">
+      <c r="S67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:19">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B68" s="3">
         <v>4</v>
       </c>
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" t="s">
-        <v>19</v>
+      <c r="C68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
-      </c>
-      <c r="F68">
+        <v>22</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>139</v>
+      </c>
+      <c r="H68">
         <v>500066</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>20066</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>200066</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>200066</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>10066</v>
       </c>
-      <c r="K68" t="s">
-        <v>21</v>
-      </c>
-      <c r="L68">
+      <c r="M68" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68">
         <v>26629</v>
       </c>
-      <c r="M68" t="s">
-        <v>22</v>
-      </c>
-      <c r="N68" s="1">
+      <c r="O68" t="s">
+        <v>26</v>
+      </c>
+      <c r="P68" s="1">
         <v>65847</v>
       </c>
-      <c r="O68">
+      <c r="Q68">
         <v>71</v>
       </c>
-      <c r="P68">
+      <c r="R68">
         <v>66</v>
       </c>
-      <c r="Q68">
+      <c r="S68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:19">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B69" s="3">
         <v>4</v>
       </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" t="s">
-        <v>19</v>
+      <c r="C69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
-      </c>
-      <c r="F69">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>141</v>
+      </c>
+      <c r="H69">
         <v>500067</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>20067</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>200067</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>200067</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>10067</v>
       </c>
-      <c r="K69" t="s">
-        <v>21</v>
-      </c>
-      <c r="L69">
+      <c r="M69" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69">
         <v>26630</v>
       </c>
-      <c r="M69" t="s">
-        <v>22</v>
-      </c>
-      <c r="N69" s="1">
+      <c r="O69" t="s">
+        <v>26</v>
+      </c>
+      <c r="P69" s="1">
         <v>65848</v>
       </c>
-      <c r="O69">
+      <c r="Q69">
         <v>72</v>
       </c>
-      <c r="P69">
+      <c r="R69">
         <v>67</v>
       </c>
-      <c r="Q69">
+      <c r="S69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:19">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B70" s="3">
         <v>4</v>
       </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" t="s">
-        <v>19</v>
+      <c r="C70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
-      </c>
-      <c r="F70">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70">
         <v>500068</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>20068</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>200068</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>200068</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>10068</v>
       </c>
-      <c r="K70" t="s">
-        <v>21</v>
-      </c>
-      <c r="L70">
+      <c r="M70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70">
         <v>26631</v>
       </c>
-      <c r="M70" t="s">
-        <v>22</v>
-      </c>
-      <c r="N70" s="1">
+      <c r="O70" t="s">
+        <v>26</v>
+      </c>
+      <c r="P70" s="1">
         <v>65849</v>
       </c>
-      <c r="O70">
+      <c r="Q70">
         <v>73</v>
       </c>
-      <c r="P70">
+      <c r="R70">
         <v>68</v>
       </c>
-      <c r="Q70">
+      <c r="S70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:19">
       <c r="A71" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B71" s="3">
         <v>4</v>
       </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
+      <c r="C71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>136</v>
-      </c>
-      <c r="F71">
+        <v>22</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>145</v>
+      </c>
+      <c r="H71">
         <v>500069</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>20069</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>200069</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>200069</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>10069</v>
       </c>
-      <c r="K71" t="s">
-        <v>21</v>
-      </c>
-      <c r="L71">
+      <c r="M71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71">
         <v>26632</v>
       </c>
-      <c r="M71" t="s">
-        <v>22</v>
-      </c>
-      <c r="N71" s="1">
+      <c r="O71" t="s">
+        <v>26</v>
+      </c>
+      <c r="P71" s="1">
         <v>65850</v>
       </c>
-      <c r="O71">
+      <c r="Q71">
         <v>74</v>
       </c>
-      <c r="P71">
+      <c r="R71">
         <v>69</v>
       </c>
-      <c r="Q71">
+      <c r="S71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:19">
       <c r="A72" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B72" s="3">
         <v>4</v>
       </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
+      <c r="C72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E72" t="s">
-        <v>138</v>
-      </c>
-      <c r="F72">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72">
         <v>500070</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>20070</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>200070</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>200070</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>10070</v>
       </c>
-      <c r="K72" t="s">
-        <v>21</v>
-      </c>
-      <c r="L72">
+      <c r="M72" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72">
         <v>26633</v>
       </c>
-      <c r="M72" t="s">
-        <v>22</v>
-      </c>
-      <c r="N72" s="1">
+      <c r="O72" t="s">
+        <v>26</v>
+      </c>
+      <c r="P72" s="1">
         <v>65851</v>
       </c>
-      <c r="O72">
+      <c r="Q72">
         <v>75</v>
       </c>
-      <c r="P72">
+      <c r="R72">
         <v>70</v>
       </c>
-      <c r="Q72">
+      <c r="S72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:19">
       <c r="A73" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B73" s="3">
         <v>4</v>
       </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
+      <c r="C73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
-      </c>
-      <c r="F73">
+        <v>22</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>149</v>
+      </c>
+      <c r="H73">
         <v>500071</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>20071</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>200071</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>200071</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>10071</v>
       </c>
-      <c r="K73" t="s">
-        <v>21</v>
-      </c>
-      <c r="L73">
+      <c r="M73" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73">
         <v>26634</v>
       </c>
-      <c r="M73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N73" s="1">
+      <c r="O73" t="s">
+        <v>26</v>
+      </c>
+      <c r="P73" s="1">
         <v>65852</v>
       </c>
-      <c r="O73">
+      <c r="Q73">
         <v>76</v>
       </c>
-      <c r="P73">
+      <c r="R73">
         <v>71</v>
       </c>
-      <c r="Q73">
+      <c r="S73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:19">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B74" s="3">
         <v>4</v>
       </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" t="s">
-        <v>19</v>
+      <c r="C74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
-      </c>
-      <c r="F74">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>151</v>
+      </c>
+      <c r="H74">
         <v>500072</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>20072</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>200072</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>200072</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>10072</v>
       </c>
-      <c r="K74" t="s">
-        <v>21</v>
-      </c>
-      <c r="L74">
+      <c r="M74" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74">
         <v>26635</v>
       </c>
-      <c r="M74" t="s">
-        <v>22</v>
-      </c>
-      <c r="N74" s="1">
+      <c r="O74" t="s">
+        <v>26</v>
+      </c>
+      <c r="P74" s="1">
         <v>65853</v>
       </c>
-      <c r="O74">
+      <c r="Q74">
         <v>77</v>
       </c>
-      <c r="P74">
+      <c r="R74">
         <v>72</v>
       </c>
-      <c r="Q74">
+      <c r="S74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:19">
       <c r="A75" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B75" s="3">
         <v>4</v>
       </c>
-      <c r="C75" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" t="s">
-        <v>19</v>
+      <c r="C75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E75" t="s">
-        <v>144</v>
-      </c>
-      <c r="F75">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>153</v>
+      </c>
+      <c r="H75">
         <v>500073</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>20073</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>200073</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>200073</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>10073</v>
       </c>
-      <c r="K75" t="s">
-        <v>21</v>
-      </c>
-      <c r="L75">
+      <c r="M75" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75">
         <v>26636</v>
       </c>
-      <c r="M75" t="s">
-        <v>22</v>
-      </c>
-      <c r="N75" s="1">
+      <c r="O75" t="s">
+        <v>26</v>
+      </c>
+      <c r="P75" s="1">
         <v>65854</v>
       </c>
-      <c r="O75">
+      <c r="Q75">
         <v>78</v>
       </c>
-      <c r="P75">
+      <c r="R75">
         <v>73</v>
       </c>
-      <c r="Q75">
+      <c r="S75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:19">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B76" s="3">
         <v>4</v>
       </c>
-      <c r="C76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
+      <c r="C76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>146</v>
-      </c>
-      <c r="F76">
+        <v>22</v>
+      </c>
+      <c r="F76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>155</v>
+      </c>
+      <c r="H76">
         <v>500074</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>20074</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>200074</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>200074</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>10074</v>
       </c>
-      <c r="K76" t="s">
-        <v>21</v>
-      </c>
-      <c r="L76">
+      <c r="M76" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76">
         <v>26637</v>
       </c>
-      <c r="M76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N76" s="1">
+      <c r="O76" t="s">
+        <v>26</v>
+      </c>
+      <c r="P76" s="1">
         <v>65855</v>
       </c>
-      <c r="O76">
+      <c r="Q76">
         <v>79</v>
       </c>
-      <c r="P76">
+      <c r="R76">
         <v>74</v>
       </c>
-      <c r="Q76">
+      <c r="S76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:19">
       <c r="A77" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B77" s="3">
         <v>4</v>
       </c>
-      <c r="C77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
+      <c r="C77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
-      </c>
-      <c r="F77">
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>157</v>
+      </c>
+      <c r="H77">
         <v>500075</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>20075</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>200075</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>200075</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>10075</v>
       </c>
-      <c r="K77" t="s">
-        <v>21</v>
-      </c>
-      <c r="L77">
+      <c r="M77" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77">
         <v>26638</v>
       </c>
-      <c r="M77" t="s">
-        <v>22</v>
-      </c>
-      <c r="N77" s="1">
+      <c r="O77" t="s">
+        <v>26</v>
+      </c>
+      <c r="P77" s="1">
         <v>65856</v>
       </c>
-      <c r="O77">
+      <c r="Q77">
         <v>80</v>
       </c>
-      <c r="P77">
+      <c r="R77">
         <v>75</v>
       </c>
-      <c r="Q77">
+      <c r="S77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:19">
       <c r="A78" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B78" s="3">
         <v>4</v>
       </c>
-      <c r="C78" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" t="s">
-        <v>19</v>
+      <c r="C78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
-      </c>
-      <c r="F78">
+        <v>22</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>159</v>
+      </c>
+      <c r="H78">
         <v>500076</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>20076</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>200076</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>200076</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>10076</v>
       </c>
-      <c r="K78" t="s">
-        <v>21</v>
-      </c>
-      <c r="L78">
+      <c r="M78" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78">
         <v>26639</v>
       </c>
-      <c r="M78" t="s">
-        <v>22</v>
-      </c>
-      <c r="N78" s="1">
+      <c r="O78" t="s">
+        <v>26</v>
+      </c>
+      <c r="P78" s="1">
         <v>65857</v>
       </c>
-      <c r="O78">
+      <c r="Q78">
         <v>81</v>
       </c>
-      <c r="P78">
+      <c r="R78">
         <v>76</v>
       </c>
-      <c r="Q78">
+      <c r="S78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:19">
       <c r="A79" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B79" s="3">
         <v>4</v>
       </c>
-      <c r="C79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
+      <c r="C79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E79" t="s">
-        <v>152</v>
-      </c>
-      <c r="F79">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>161</v>
+      </c>
+      <c r="H79">
         <v>500077</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>20077</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>200077</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>200077</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>10077</v>
       </c>
-      <c r="K79" t="s">
-        <v>21</v>
-      </c>
-      <c r="L79">
+      <c r="M79" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79">
         <v>26640</v>
       </c>
-      <c r="M79" t="s">
-        <v>22</v>
-      </c>
-      <c r="N79" s="1">
+      <c r="O79" t="s">
+        <v>26</v>
+      </c>
+      <c r="P79" s="1">
         <v>65858</v>
       </c>
-      <c r="O79">
+      <c r="Q79">
         <v>82</v>
       </c>
-      <c r="P79">
+      <c r="R79">
         <v>77</v>
       </c>
-      <c r="Q79">
+      <c r="S79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:19">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B80" s="3">
         <v>4</v>
       </c>
-      <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" t="s">
-        <v>19</v>
+      <c r="C80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E80" t="s">
-        <v>154</v>
-      </c>
-      <c r="F80">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>163</v>
+      </c>
+      <c r="H80">
         <v>500078</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>20078</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>200078</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>200078</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>10078</v>
       </c>
-      <c r="K80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L80">
+      <c r="M80" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80">
         <v>26641</v>
       </c>
-      <c r="M80" t="s">
-        <v>22</v>
-      </c>
-      <c r="N80" s="1">
+      <c r="O80" t="s">
+        <v>26</v>
+      </c>
+      <c r="P80" s="1">
         <v>65859</v>
       </c>
-      <c r="O80">
+      <c r="Q80">
         <v>83</v>
       </c>
-      <c r="P80">
+      <c r="R80">
         <v>78</v>
       </c>
-      <c r="Q80">
+      <c r="S80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:19">
       <c r="A81" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B81" s="3">
         <v>4</v>
       </c>
-      <c r="C81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" t="s">
-        <v>19</v>
+      <c r="C81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
-      </c>
-      <c r="F81">
+        <v>22</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>165</v>
+      </c>
+      <c r="H81">
         <v>500079</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>20079</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>200079</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>200079</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>10079</v>
       </c>
-      <c r="K81" t="s">
-        <v>21</v>
-      </c>
-      <c r="L81">
+      <c r="M81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81">
         <v>26642</v>
       </c>
-      <c r="M81" t="s">
-        <v>22</v>
-      </c>
-      <c r="N81" s="1">
+      <c r="O81" t="s">
+        <v>26</v>
+      </c>
+      <c r="P81" s="1">
         <v>65860</v>
       </c>
-      <c r="O81">
+      <c r="Q81">
         <v>84</v>
       </c>
-      <c r="P81">
+      <c r="R81">
         <v>79</v>
       </c>
-      <c r="Q81">
+      <c r="S81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:19">
       <c r="A82" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B82" s="3">
         <v>4</v>
       </c>
-      <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" t="s">
-        <v>19</v>
+      <c r="C82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E82" t="s">
-        <v>158</v>
-      </c>
-      <c r="F82">
+        <v>22</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>167</v>
+      </c>
+      <c r="H82">
         <v>500080</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>20080</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>200080</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>200080</v>
       </c>
-      <c r="J82">
+      <c r="L82">
         <v>10080</v>
       </c>
-      <c r="K82" t="s">
-        <v>21</v>
-      </c>
-      <c r="L82">
+      <c r="M82" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82">
         <v>26643</v>
       </c>
-      <c r="M82" t="s">
-        <v>22</v>
-      </c>
-      <c r="N82" s="1">
+      <c r="O82" t="s">
+        <v>26</v>
+      </c>
+      <c r="P82" s="1">
         <v>65861</v>
       </c>
-      <c r="O82">
+      <c r="Q82">
         <v>85</v>
       </c>
-      <c r="P82">
+      <c r="R82">
         <v>80</v>
       </c>
-      <c r="Q82">
+      <c r="S82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:19">
       <c r="A83" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B83" s="3">
         <v>4</v>
       </c>
-      <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" t="s">
-        <v>19</v>
+      <c r="C83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>169</v>
+      </c>
+      <c r="H83">
         <v>500081</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>20081</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>200081</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>200081</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>10081</v>
       </c>
-      <c r="K83" t="s">
-        <v>21</v>
-      </c>
-      <c r="L83">
+      <c r="M83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83">
         <v>26644</v>
       </c>
-      <c r="M83" t="s">
-        <v>22</v>
-      </c>
-      <c r="N83" s="1">
+      <c r="O83" t="s">
+        <v>26</v>
+      </c>
+      <c r="P83" s="1">
         <v>65862</v>
       </c>
-      <c r="O83">
+      <c r="Q83">
         <v>86</v>
       </c>
-      <c r="P83">
+      <c r="R83">
         <v>81</v>
       </c>
-      <c r="Q83">
+      <c r="S83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:19">
       <c r="A84" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B84" s="3">
         <v>4</v>
       </c>
-      <c r="C84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" t="s">
-        <v>19</v>
+      <c r="C84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E84" t="s">
-        <v>162</v>
-      </c>
-      <c r="F84">
+        <v>22</v>
+      </c>
+      <c r="F84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>171</v>
+      </c>
+      <c r="H84">
         <v>500082</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>20082</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>200082</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>200082</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>10082</v>
       </c>
-      <c r="K84" t="s">
-        <v>21</v>
-      </c>
-      <c r="L84">
+      <c r="M84" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84">
         <v>26645</v>
       </c>
-      <c r="M84" t="s">
-        <v>22</v>
-      </c>
-      <c r="N84" s="1">
+      <c r="O84" t="s">
+        <v>26</v>
+      </c>
+      <c r="P84" s="1">
         <v>65863</v>
       </c>
-      <c r="O84">
+      <c r="Q84">
         <v>87</v>
       </c>
-      <c r="P84">
+      <c r="R84">
         <v>82</v>
       </c>
-      <c r="Q84">
+      <c r="S84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:19">
       <c r="A85" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B85" s="3">
         <v>4</v>
       </c>
-      <c r="C85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" t="s">
-        <v>19</v>
+      <c r="C85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E85" t="s">
-        <v>164</v>
-      </c>
-      <c r="F85">
+        <v>22</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>173</v>
+      </c>
+      <c r="H85">
         <v>500083</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>20083</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>200083</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>200083</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>10083</v>
       </c>
-      <c r="K85" t="s">
-        <v>21</v>
-      </c>
-      <c r="L85">
+      <c r="M85" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85">
         <v>26646</v>
       </c>
-      <c r="M85" t="s">
-        <v>22</v>
-      </c>
-      <c r="N85" s="1">
+      <c r="O85" t="s">
+        <v>26</v>
+      </c>
+      <c r="P85" s="1">
         <v>65864</v>
       </c>
-      <c r="O85">
+      <c r="Q85">
         <v>88</v>
       </c>
-      <c r="P85">
+      <c r="R85">
         <v>83</v>
       </c>
-      <c r="Q85">
+      <c r="S85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:19">
       <c r="A86" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B86" s="3">
         <v>4</v>
       </c>
-      <c r="C86" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" t="s">
-        <v>19</v>
+      <c r="C86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E86" t="s">
-        <v>166</v>
-      </c>
-      <c r="F86">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>175</v>
+      </c>
+      <c r="H86">
         <v>500084</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>20084</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>200084</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>200084</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>10084</v>
       </c>
-      <c r="K86" t="s">
-        <v>21</v>
-      </c>
-      <c r="L86">
+      <c r="M86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86">
         <v>26647</v>
       </c>
-      <c r="M86" t="s">
-        <v>22</v>
-      </c>
-      <c r="N86" s="1">
+      <c r="O86" t="s">
+        <v>26</v>
+      </c>
+      <c r="P86" s="1">
         <v>65865</v>
       </c>
-      <c r="O86">
+      <c r="Q86">
         <v>89</v>
       </c>
-      <c r="P86">
+      <c r="R86">
         <v>84</v>
       </c>
-      <c r="Q86">
+      <c r="S86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:19">
       <c r="A87" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B87" s="3">
         <v>4</v>
       </c>
-      <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>19</v>
+      <c r="C87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
-      </c>
-      <c r="F87">
+        <v>22</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>177</v>
+      </c>
+      <c r="H87">
         <v>500085</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>20085</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>200085</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>200085</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>10085</v>
       </c>
-      <c r="K87" t="s">
-        <v>21</v>
-      </c>
-      <c r="L87">
+      <c r="M87" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87">
         <v>26648</v>
       </c>
-      <c r="M87" t="s">
-        <v>22</v>
-      </c>
-      <c r="N87" s="1">
+      <c r="O87" t="s">
+        <v>26</v>
+      </c>
+      <c r="P87" s="1">
         <v>65866</v>
       </c>
-      <c r="O87">
+      <c r="Q87">
         <v>90</v>
       </c>
-      <c r="P87">
+      <c r="R87">
         <v>85</v>
       </c>
-      <c r="Q87">
+      <c r="S87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:19">
       <c r="A88" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B88" s="3">
         <v>4</v>
       </c>
-      <c r="C88" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" t="s">
-        <v>19</v>
+      <c r="C88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
-      </c>
-      <c r="F88">
+        <v>22</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>178</v>
+      </c>
+      <c r="H88">
         <v>500086</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>20086</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>200086</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>200086</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>10086</v>
       </c>
-      <c r="K88" t="s">
-        <v>21</v>
-      </c>
-      <c r="L88">
+      <c r="M88" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88">
         <v>26649</v>
       </c>
-      <c r="M88" t="s">
-        <v>22</v>
-      </c>
-      <c r="N88" s="1">
+      <c r="O88" t="s">
+        <v>26</v>
+      </c>
+      <c r="P88" s="1">
         <v>65867</v>
       </c>
-      <c r="O88">
+      <c r="Q88">
         <v>91</v>
       </c>
-      <c r="P88">
+      <c r="R88">
         <v>86</v>
       </c>
-      <c r="Q88">
+      <c r="S88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:19">
       <c r="A89" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B89" s="3">
         <v>4</v>
       </c>
-      <c r="C89" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" t="s">
-        <v>19</v>
+      <c r="C89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
-      </c>
-      <c r="F89">
+        <v>22</v>
+      </c>
+      <c r="F89" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>180</v>
+      </c>
+      <c r="H89">
         <v>500087</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>20087</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>200087</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>200087</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>10087</v>
       </c>
-      <c r="K89" t="s">
-        <v>21</v>
-      </c>
-      <c r="L89">
+      <c r="M89" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89">
         <v>26650</v>
       </c>
-      <c r="M89" t="s">
-        <v>22</v>
-      </c>
-      <c r="N89" s="1">
+      <c r="O89" t="s">
+        <v>26</v>
+      </c>
+      <c r="P89" s="1">
         <v>65868</v>
       </c>
-      <c r="O89">
+      <c r="Q89">
         <v>92</v>
       </c>
-      <c r="P89">
+      <c r="R89">
         <v>87</v>
       </c>
-      <c r="Q89">
+      <c r="S89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:19">
       <c r="A90" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B90" s="3">
         <v>5</v>
       </c>
-      <c r="C90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" t="s">
-        <v>19</v>
+      <c r="C90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
-      </c>
-      <c r="F90">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>182</v>
+      </c>
+      <c r="H90">
         <v>500088</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>20088</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>200088</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>200088</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>10088</v>
       </c>
-      <c r="K90" t="s">
-        <v>21</v>
-      </c>
-      <c r="L90">
+      <c r="M90" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90">
         <v>26651</v>
       </c>
-      <c r="M90" t="s">
-        <v>22</v>
-      </c>
-      <c r="N90" s="1">
+      <c r="O90" t="s">
+        <v>26</v>
+      </c>
+      <c r="P90" s="1">
         <v>65869</v>
       </c>
-      <c r="O90">
+      <c r="Q90">
         <v>93</v>
       </c>
-      <c r="P90">
+      <c r="R90">
         <v>88</v>
       </c>
-      <c r="Q90">
+      <c r="S90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:19">
       <c r="A91" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B91" s="3">
         <v>5</v>
       </c>
-      <c r="C91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" t="s">
-        <v>19</v>
+      <c r="C91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
-      </c>
-      <c r="F91">
+        <v>22</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>184</v>
+      </c>
+      <c r="H91">
         <v>500089</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>20089</v>
       </c>
-      <c r="H91">
+      <c r="J91">
         <v>200089</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>200089</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>10089</v>
       </c>
-      <c r="K91" t="s">
-        <v>21</v>
-      </c>
-      <c r="L91">
+      <c r="M91" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91">
         <v>26652</v>
       </c>
-      <c r="M91" t="s">
-        <v>22</v>
-      </c>
-      <c r="N91" s="1">
+      <c r="O91" t="s">
+        <v>26</v>
+      </c>
+      <c r="P91" s="1">
         <v>65870</v>
       </c>
-      <c r="O91">
+      <c r="Q91">
         <v>94</v>
       </c>
-      <c r="P91">
+      <c r="R91">
         <v>89</v>
       </c>
-      <c r="Q91">
+      <c r="S91">
         <v>89</v>
       </c>
     </row>
